--- a/biology/Botanique/Amomum_subulatum/Amomum_subulatum.xlsx
+++ b/biology/Botanique/Amomum_subulatum/Amomum_subulatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amomum subulatum, la grande cardamome, cardamome brune ou cardamome noire, est une espèce de plante de la famille des Zingiberaceae.
 C'est épice orientale. A la différence des poivres blanc, vert ou noir qui sont des stades de maturité d'une même baie; la cardamome noire n'est pas tirée de la même plante que la vraie cardamome ou cardamome verte (Elettaria cardomomum).
-Ses propriétés pharmacologique et antioxydante, ou celles de son huile essentielle, font l'objet de nombreuses publications académiques[1].
+Ses propriétés pharmacologique et antioxydante, ou celles de son huile essentielle, font l'objet de nombreuses publications académiques.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante herbacée à rhizome rampant atteignant 2 m de haut, originaire du Bengale[2], est traditionnellement cultivée dans la région sub-himalayenne du nord-est de l'Inde (Sikkim)[3] et au Népal où l'amélioration de la culture et la sélection variétale sont en cours[4]. Les feuilles de 30 à 60 cm sont oblongues lancéolées. Les inflorescences très denses et globuleuses poussent près du sol. Les fruits de 25 mm de diamètre sont rouge brun foncé et couverts de côtes ailées et dentées. Ils contiennent 40 à 50 graines rondes et brunes[5].
-Le genre Amomum produit différents aromates qui portent le nom de cardamome[6]: cardamome du Siam dont on utilise la graine (Amomum cardamomum), cardamome du Bengale (fruits) (Amomum aromaticum), cardamome du Cameroun (fruits) (Amomum sp.), cardamome de Korarima (racines, feuilles et fruits) (Amomum angustifolium), alors que le genre Eleltaria donne la cardamome verte, la cardamome de Ceylan[7], de Malabar (Inde, Kerala), de Madras, de Mysore ( Karnataka) (fruits)[8].
-Elle est nommée black cardamom, Nepal cardamom ou large cardamom en anglais, en hindi ,बड़ी इलाइची (baḍī ilāichī), badi Elaichi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée à rhizome rampant atteignant 2 m de haut, originaire du Bengale, est traditionnellement cultivée dans la région sub-himalayenne du nord-est de l'Inde (Sikkim) et au Népal où l'amélioration de la culture et la sélection variétale sont en cours. Les feuilles de 30 à 60 cm sont oblongues lancéolées. Les inflorescences très denses et globuleuses poussent près du sol. Les fruits de 25 mm de diamètre sont rouge brun foncé et couverts de côtes ailées et dentées. Ils contiennent 40 à 50 graines rondes et brunes.
+Le genre Amomum produit différents aromates qui portent le nom de cardamome: cardamome du Siam dont on utilise la graine (Amomum cardamomum), cardamome du Bengale (fruits) (Amomum aromaticum), cardamome du Cameroun (fruits) (Amomum sp.), cardamome de Korarima (racines, feuilles et fruits) (Amomum angustifolium), alors que le genre Eleltaria donne la cardamome verte, la cardamome de Ceylan, de Malabar (Inde, Kerala), de Madras, de Mysore ( Karnataka) (fruits).
+Elle est nommée black cardamom, Nepal cardamom ou large cardamom en anglais, en hindi ,बड़ी इलाइची (baḍī ilāichī), badi Elaichi.
 </t>
         </is>
       </c>
@@ -546,13 +560,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit de la grande cardamome a un goût fort et camphré. Le fruit séché est utilisé dans les aliments, les boissons, les parfums et les médicaments.
-Aromate
-En Inde, elle est utilisée pour aromatiser des pâtisseries ou comme masticatoire[5].
-Pharmacologie
-Depuis le VIe siècle, la plante est utilisé en médecine ayurvédique comme astringent, stimulant, analgésique, hypolipémiant, antioxydant, antiulcéreux, cardioprotecteur et antimicrobien, auxquels s'ajoute des vertus antihyperglycémiant, atténuante de l'asthme, la toux, les maladies du foie et l'anorexie. L'activités anti-lipidiques et antioxydantes a été démontrée significative chez le lapin[9]. In vitro une activité anticancéreuse (sur des cellules de cancer du poumon) a été mise en évidence (2022)[10].
 </t>
         </is>
       </c>
@@ -578,12 +590,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aromate</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Inde, elle est utilisée pour aromatiser des pâtisseries ou comme masticatoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amomum_subulatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amomum_subulatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le VIe siècle, la plante est utilisé en médecine ayurvédique comme astringent, stimulant, analgésique, hypolipémiant, antioxydant, antiulcéreux, cardioprotecteur et antimicrobien, auxquels s'ajoute des vertus antihyperglycémiant, atténuante de l'asthme, la toux, les maladies du foie et l'anorexie. L'activités anti-lipidiques et antioxydantes a été démontrée significative chez le lapin. In vitro une activité anticancéreuse (sur des cellules de cancer du poumon) a été mise en évidence (2022).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amomum_subulatum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amomum_subulatum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Huile essentielle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'huile essentielle est extraite des graines avec un rendement important de 3.35% (extraction assistée micro-ondes) et 3% (hydrodistillation). Le composé le plus présent (environ 45%) est le 1,8-cinéole suivi de α-pinène [11]et β-pinène (3.5% moyen), α-terpinéol (7,3% moyen), le terpinène-4-ol (5%), géraniol D (3.8% moyen) et β-pinène (3,6% moyen). 56 composants sont décrits et mesurés. Le potentiel anti-inflammatoire de l'huile essentielle est qualifié « d' exceptionnel comparable à celui de l'ibuprofène» par une publication universitaire indienne (2021)[12].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile essentielle est extraite des graines avec un rendement important de 3.35% (extraction assistée micro-ondes) et 3% (hydrodistillation). Le composé le plus présent (environ 45%) est le 1,8-cinéole suivi de α-pinène et β-pinène (3.5% moyen), α-terpinéol (7,3% moyen), le terpinène-4-ol (5%), géraniol D (3.8% moyen) et β-pinène (3,6% moyen). 56 composants sont décrits et mesurés. Le potentiel anti-inflammatoire de l'huile essentielle est qualifié « d' exceptionnel comparable à celui de l'ibuprofène» par une publication universitaire indienne (2021).
 </t>
         </is>
       </c>
